--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_12_28.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_12_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2011363.644551082</v>
+        <v>2008987.017603718</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12383593.48435851</v>
+        <v>12383593.4843585</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283194</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>72.94942429078201</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -677,7 +677,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>16.82188601375679</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -823,16 +823,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>146.2200463431393</v>
       </c>
       <c r="H4" t="n">
-        <v>22.59950810058612</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>328.4528833267051</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>84.79527148983955</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,22 +947,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1054,22 +1054,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>110.6796476850519</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>176.1146791460087</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>267.4083398772225</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>196.6997841156804</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705011</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>15.59729702149764</v>
+        <v>145.8284992587528</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1354,10 +1354,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1376,13 +1376,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722605</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187885</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>117.8112368377027</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1585,7 +1585,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>127.1477159870284</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1616,10 +1616,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187859</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1765,22 +1765,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>77.73359659137093</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1825,7 +1825,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2002,7 +2002,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>126.9263824507425</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2017,10 +2017,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>18.70843787977265</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>41.33703994142957</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>181.9855643708048</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,25 +2473,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>194.5707234541129</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187863</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,7 +2713,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2722,7 +2722,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2731,7 +2731,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>65.78783178799286</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,19 +2767,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>239.4844875583159</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2947,13 +2947,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>139.511541534052</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>78.9105100867805</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2962,13 +2962,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3029,7 +3029,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710084</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3187,25 +3187,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.0280580960833</v>
+        <v>42.71572132711282</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3247,7 +3247,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,25 +3424,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>124.936238874645</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3487,7 +3487,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>168.4805514670949</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3664,22 +3664,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>20.88994825141629</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3901,22 +3901,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892427987</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3961,10 +3961,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>176.2740711281116</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4141,7 +4141,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4150,7 +4150,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4198,7 +4198,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>162.3413016667496</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4328,13 +4328,13 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872924</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2545.347524345856</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2291.766463610035</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>1960.703576266465</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1607.934920996351</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>1234.469162735271</v>
+        <v>918.0161179218651</v>
       </c>
       <c r="Y2" t="n">
-        <v>844.329830759459</v>
+        <v>918.0161179218651</v>
       </c>
     </row>
     <row r="3">
@@ -4398,34 +4398,34 @@
         <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057875</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>684.9695361605189</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>979.6730931919907</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M3" t="n">
-        <v>1342.935112151211</v>
+        <v>956.284402521753</v>
       </c>
       <c r="N3" t="n">
-        <v>1730.220240748156</v>
+        <v>1343.569531118698</v>
       </c>
       <c r="O3" t="n">
-        <v>2062.290675924318</v>
+        <v>1977.748514897737</v>
       </c>
       <c r="P3" t="n">
-        <v>2309.473409756615</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>518.9942530208303</v>
+        <v>349.0604424885604</v>
       </c>
       <c r="C4" t="n">
-        <v>518.9942530208303</v>
+        <v>349.0604424885604</v>
       </c>
       <c r="D4" t="n">
-        <v>368.8776136084946</v>
+        <v>198.9438030762247</v>
       </c>
       <c r="E4" t="n">
-        <v>220.9645200261015</v>
+        <v>198.9438030762247</v>
       </c>
       <c r="F4" t="n">
-        <v>74.07457252819111</v>
+        <v>198.9438030762247</v>
       </c>
       <c r="G4" t="n">
-        <v>74.07457252819111</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
         <v>51.24678656800311</v>
@@ -4486,52 +4486,52 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S4" t="n">
-        <v>1533.86271359008</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T4" t="n">
-        <v>1533.86271359008</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="U4" t="n">
-        <v>1244.744376093917</v>
+        <v>1048.115628253778</v>
       </c>
       <c r="V4" t="n">
-        <v>990.0598878880306</v>
+        <v>1048.115628253778</v>
       </c>
       <c r="W4" t="n">
-        <v>700.6427178510701</v>
+        <v>758.6984582168175</v>
       </c>
       <c r="X4" t="n">
-        <v>700.6427178510701</v>
+        <v>530.7089073188001</v>
       </c>
       <c r="Y4" t="n">
-        <v>700.6427178510701</v>
+        <v>530.7089073188001</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1660.900948886693</v>
+        <v>1545.062936918765</v>
       </c>
       <c r="C5" t="n">
-        <v>1291.938431946282</v>
+        <v>1176.100419978353</v>
       </c>
       <c r="D5" t="n">
-        <v>933.6727333395313</v>
+        <v>844.329830759459</v>
       </c>
       <c r="E5" t="n">
-        <v>547.884480741287</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F5" t="n">
-        <v>136.8985759516794</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G5" t="n">
-        <v>51.24678656800313</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800313</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>442.517185281608</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872924</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923563</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926627</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926627</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U5" t="n">
-        <v>2437.640120926627</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="V5" t="n">
-        <v>2437.640120926627</v>
+        <v>1897.831592188879</v>
       </c>
       <c r="W5" t="n">
-        <v>2437.640120926627</v>
+        <v>1545.062936918765</v>
       </c>
       <c r="X5" t="n">
-        <v>2437.640120926627</v>
+        <v>1545.062936918765</v>
       </c>
       <c r="Y5" t="n">
-        <v>2047.500788950815</v>
+        <v>1545.062936918765</v>
       </c>
     </row>
     <row r="6">
@@ -4641,31 +4641,31 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370162</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>590.2049751143493</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L6" t="n">
-        <v>884.908532145821</v>
+        <v>932.4978103100997</v>
       </c>
       <c r="M6" t="n">
-        <v>1248.170551105041</v>
+        <v>1295.75982926932</v>
       </c>
       <c r="N6" t="n">
-        <v>1635.455679701986</v>
+        <v>1683.044957866265</v>
       </c>
       <c r="O6" t="n">
-        <v>1967.526114878148</v>
+        <v>2015.115393042426</v>
       </c>
       <c r="P6" t="n">
-        <v>2214.708848710445</v>
+        <v>2262.298126874723</v>
       </c>
       <c r="Q6" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>944.8867386045655</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="C7" t="n">
-        <v>775.9505556766586</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="D7" t="n">
-        <v>625.8339162643229</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="E7" t="n">
-        <v>477.9208226819297</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F7" t="n">
-        <v>331.0308751840194</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G7" t="n">
-        <v>163.0444104922979</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312202</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T7" t="n">
-        <v>1636.446120074497</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U7" t="n">
-        <v>1347.327782578335</v>
+        <v>936.3618696456771</v>
       </c>
       <c r="V7" t="n">
-        <v>1347.327782578335</v>
+        <v>681.6773814397902</v>
       </c>
       <c r="W7" t="n">
-        <v>1347.327782578335</v>
+        <v>681.6773814397902</v>
       </c>
       <c r="X7" t="n">
-        <v>1347.327782578335</v>
+        <v>453.6878305417729</v>
       </c>
       <c r="Y7" t="n">
-        <v>1126.535203434805</v>
+        <v>232.8952513982428</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1586.913505738324</v>
+        <v>1500.22751757712</v>
       </c>
       <c r="C8" t="n">
-        <v>1217.950988797912</v>
+        <v>1230.118083357703</v>
       </c>
       <c r="D8" t="n">
-        <v>859.685290191162</v>
+        <v>1230.118083357703</v>
       </c>
       <c r="E8" t="n">
-        <v>473.8970375929177</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F8" t="n">
-        <v>62.9111328033102</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800314</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800314</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800314</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816085</v>
+        <v>442.517185281608</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923563</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764999</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723852</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400157</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400157</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400157</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400157</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="V8" t="n">
-        <v>2562.339328400157</v>
+        <v>1852.996172847234</v>
       </c>
       <c r="W8" t="n">
-        <v>2562.339328400157</v>
+        <v>1500.22751757712</v>
       </c>
       <c r="X8" t="n">
-        <v>2363.652677778257</v>
+        <v>1500.22751757712</v>
       </c>
       <c r="Y8" t="n">
-        <v>1973.513345802446</v>
+        <v>1500.22751757712</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4878,28 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800314</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370162</v>
+        <v>129.0834785909174</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380218</v>
+        <v>575.6256845144202</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694936</v>
+        <v>870.3292415458918</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828714</v>
+        <v>1233.591260505112</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.793729425659</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601821</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>666.9516006271326</v>
+        <v>621.6669618009208</v>
       </c>
       <c r="C10" t="n">
-        <v>498.0154176992257</v>
+        <v>452.7307788730139</v>
       </c>
       <c r="D10" t="n">
-        <v>347.89877828689</v>
+        <v>452.7307788730139</v>
       </c>
       <c r="E10" t="n">
-        <v>199.9856847044969</v>
+        <v>452.7307788730139</v>
       </c>
       <c r="F10" t="n">
-        <v>199.9856847044969</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="G10" t="n">
-        <v>199.9856847044969</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800314</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800314</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312206</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020477</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074498</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074498</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074498</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="U10" t="n">
-        <v>1620.691274598237</v>
+        <v>1386.561199187299</v>
       </c>
       <c r="V10" t="n">
-        <v>1366.00678639235</v>
+        <v>1131.876710981412</v>
       </c>
       <c r="W10" t="n">
-        <v>1076.58961635539</v>
+        <v>842.459540944451</v>
       </c>
       <c r="X10" t="n">
-        <v>848.6000654573724</v>
+        <v>842.459540944451</v>
       </c>
       <c r="Y10" t="n">
-        <v>848.6000654573724</v>
+        <v>621.6669618009208</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168629</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111722</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191924</v>
+        <v>372.4964262156759</v>
       </c>
       <c r="L12" t="n">
-        <v>923.067041434951</v>
+        <v>867.8220324314346</v>
       </c>
       <c r="M12" t="n">
-        <v>923.067041434951</v>
+        <v>1465.200520057987</v>
       </c>
       <c r="N12" t="n">
-        <v>1550.665004989557</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="O12" t="n">
-        <v>2102.574735228844</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>640.1060525954244</v>
+        <v>734.6461798836018</v>
       </c>
       <c r="C13" t="n">
-        <v>640.1060525954244</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D13" t="n">
-        <v>489.9894131830887</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E13" t="n">
-        <v>489.9894131830887</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1559.953817504172</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1270.536647467212</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1042.547096569194</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>821.7545174256642</v>
+        <v>916.2946447138415</v>
       </c>
     </row>
     <row r="14">
@@ -5252,10 +5252,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004712</v>
@@ -5264,31 +5264,31 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192588</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5303,25 +5303,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K15" t="n">
-        <v>280.8495004245714</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="L15" t="n">
-        <v>776.17510664033</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266882</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>803.2707707770305</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908938</v>
+        <v>634.3345878491236</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908938</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908938</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.140538179773</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1205.7118147508</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>984.9192356072703</v>
       </c>
     </row>
     <row r="17">
@@ -5501,46 +5501,46 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
         <v>4405.252601474784</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797186</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L18" t="n">
-        <v>542.9134462654469</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M18" t="n">
-        <v>1140.291933891999</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N18" t="n">
-        <v>1767.889897446606</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O18" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D19" t="n">
-        <v>194.8007783998286</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E19" t="n">
-        <v>194.8007783998286</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F19" t="n">
-        <v>194.8007783998286</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>194.8007783998286</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5738,64 +5738,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="L21" t="n">
-        <v>119.290296770379</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969308</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>653.7474797708871</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429802</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429802</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429802</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910811</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570819</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853363</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832665</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>960.4603932171079</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>739.6678140735778</v>
       </c>
     </row>
     <row r="23">
@@ -5981,16 +5981,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -5999,16 +5999,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,22 +6060,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797186</v>
+        <v>214.9229991561132</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797186</v>
+        <v>214.9229991561132</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637306</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
         <v>1307.627092998424</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>947.7481113147751</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>726.955532171245</v>
       </c>
     </row>
     <row r="26">
@@ -6200,31 +6200,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075809</v>
@@ -6236,13 +6236,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852255</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6303,16 +6303,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N27" t="n">
         <v>1307.627092998424</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>803.8641191832229</v>
+        <v>781.8178837532263</v>
       </c>
       <c r="C28" t="n">
-        <v>634.927936255316</v>
+        <v>781.8178837532263</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2380.510728238854</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.655893893758</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1978.054428916699</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.979202260897</v>
+        <v>1735.557557724331</v>
       </c>
       <c r="V28" t="n">
-        <v>1434.29471405501</v>
+        <v>1480.873069518444</v>
       </c>
       <c r="W28" t="n">
-        <v>1434.29471405501</v>
+        <v>1191.455899481483</v>
       </c>
       <c r="X28" t="n">
-        <v>1206.305163156993</v>
+        <v>963.466348583466</v>
       </c>
       <c r="Y28" t="n">
-        <v>985.5125840134626</v>
+        <v>963.466348583466</v>
       </c>
     </row>
     <row r="29">
@@ -6452,19 +6452,19 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,10 +6473,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6543,25 +6543,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>184.7035232280583</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745238</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N30" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>733.4550657171301</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C31" t="n">
-        <v>564.5188827892232</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>915.1035305473698</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6692,55 +6692,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,22 +6771,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N33" t="n">
         <v>1307.627092998424</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>803.2707707770319</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>634.334587849125</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429803</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429803</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1205.711814750802</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>984.9192356072716</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6932,25 +6932,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7017,22 +7017,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637306</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M36" t="n">
-        <v>1186.520756890282</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>1814.118720444889</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O36" t="n">
-        <v>2366.028450684176</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>741.843151638089</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>741.843151638089</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>591.7265122257533</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>443.8134186433601</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>443.8134186433601</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>923.4916164683287</v>
       </c>
     </row>
     <row r="38">
@@ -7160,37 +7160,37 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852256</v>
@@ -7257,22 +7257,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7391,16 +7391,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7491,13 +7491,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N42" t="n">
         <v>1307.627092998424</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400694</v>
+        <v>784.5811134804959</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121625</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121625</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121625</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121625</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270425</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7588,31 +7588,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832661</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487565</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510506</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854704</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648817</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611857</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138393</v>
+        <v>966.2295783107356</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703091</v>
+        <v>966.2295783107356</v>
       </c>
     </row>
     <row r="44">
@@ -7634,34 +7634,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,16 +7722,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M45" t="n">
         <v>680.0291294438176</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>577.8620388433919</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7846,10 +7846,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>980.3030828171618</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>759.5105036736317</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8070,16 +8070,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>305.1601501039159</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>224.3355197601776</v>
       </c>
       <c r="Q3" t="n">
-        <v>138.9393975111057</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8292,13 +8292,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>168.7434581780638</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>342.9044714621886</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,10 +8313,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>186.5911984019045</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>15.64270034434959</v>
       </c>
       <c r="K9" t="n">
-        <v>193.3273467878338</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8541,7 +8541,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>249.3877325071649</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8550,10 +8550,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154984</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9164,7 +9164,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>-3.940996767551754e-13</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>-1.255349446890005e-13</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9893,7 +9893,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>-5.518605861450607e-13</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -10124,7 +10124,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -11072,13 +11072,13 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -23264,7 +23264,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23416,22 +23416,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>49.43558426092518</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>124.9899273367996</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>70.88187642684143</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23783,7 +23783,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>40.32043864788533</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>121.5862749664512</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23966,7 +23966,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>43.72409101823237</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>31.13893193492422</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24601,7 +24601,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24610,7 +24610,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0.5874149221288292</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,19 +24655,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>46.6999868309282</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24835,13 +24835,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>40.32043864788525</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>69.70496293143185</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24850,13 +24850,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,7 +24889,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25075,22 +25075,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0.5874149221290565</v>
+        <v>105.8997516910995</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25135,7 +25135,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>40.58789941762386</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>57.22910392194225</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>127.7255247667961</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,7 +25597,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194402</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25849,10 +25849,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>49.43558426092559</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26029,7 +26029,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26038,7 +26038,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26086,7 +26086,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>63.36835372228751</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>876543.4989389305</v>
+        <v>876543.4989389306</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>854823.2572546543</v>
+        <v>854823.2572546542</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>854823.2572546543</v>
+        <v>854823.2572546542</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>854823.2572546542</v>
+        <v>854823.2572546543</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>854823.2572546543</v>
+        <v>854823.2572546542</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>854823.2572546542</v>
+        <v>854823.2572546543</v>
       </c>
     </row>
     <row r="14">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049984</v>
+        <v>574729.2389049986</v>
       </c>
       <c r="C2" t="n">
         <v>574729.2389049984</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049979</v>
+        <v>574729.2389049981</v>
       </c>
       <c r="E2" t="n">
+        <v>565002.6197830047</v>
+      </c>
+      <c r="F2" t="n">
+        <v>565002.6197830046</v>
+      </c>
+      <c r="G2" t="n">
+        <v>565002.6197830047</v>
+      </c>
+      <c r="H2" t="n">
+        <v>565002.6197830046</v>
+      </c>
+      <c r="I2" t="n">
         <v>565002.6197830043</v>
-      </c>
-      <c r="F2" t="n">
-        <v>565002.6197830043</v>
-      </c>
-      <c r="G2" t="n">
-        <v>565002.6197830044</v>
-      </c>
-      <c r="H2" t="n">
-        <v>565002.6197830045</v>
-      </c>
-      <c r="I2" t="n">
-        <v>565002.6197830044</v>
       </c>
       <c r="J2" t="n">
         <v>565002.6197830046</v>
       </c>
       <c r="K2" t="n">
+        <v>565002.6197830046</v>
+      </c>
+      <c r="L2" t="n">
+        <v>565002.6197830046</v>
+      </c>
+      <c r="M2" t="n">
+        <v>565002.6197830044</v>
+      </c>
+      <c r="N2" t="n">
         <v>565002.6197830045</v>
       </c>
-      <c r="L2" t="n">
+      <c r="O2" t="n">
+        <v>565002.6197830046</v>
+      </c>
+      <c r="P2" t="n">
         <v>565002.6197830045</v>
-      </c>
-      <c r="M2" t="n">
-        <v>565002.6197830043</v>
-      </c>
-      <c r="N2" t="n">
-        <v>565002.6197830044</v>
-      </c>
-      <c r="O2" t="n">
-        <v>565002.6197830045</v>
-      </c>
-      <c r="P2" t="n">
-        <v>565002.6197830044</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245451</v>
+        <v>507485.4416245462</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289265</v>
+        <v>132607.2937289268</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,46 +26415,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>134318.0002618637</v>
+        <v>134318.0002618638</v>
       </c>
       <c r="C4" t="n">
-        <v>134318.0002618637</v>
+        <v>134318.0002618638</v>
       </c>
       <c r="D4" t="n">
-        <v>134318.0002618636</v>
+        <v>134318.0002618638</v>
       </c>
       <c r="E4" t="n">
+        <v>8117.312426731889</v>
+      </c>
+      <c r="F4" t="n">
+        <v>8117.312426731975</v>
+      </c>
+      <c r="G4" t="n">
+        <v>8117.31242673194</v>
+      </c>
+      <c r="H4" t="n">
+        <v>8117.312426731975</v>
+      </c>
+      <c r="I4" t="n">
+        <v>8117.312426731962</v>
+      </c>
+      <c r="J4" t="n">
+        <v>8117.312426731964</v>
+      </c>
+      <c r="K4" t="n">
         <v>8117.312426731974</v>
       </c>
-      <c r="F4" t="n">
-        <v>8117.312426732008</v>
-      </c>
-      <c r="G4" t="n">
-        <v>8117.312426731974</v>
-      </c>
-      <c r="H4" t="n">
-        <v>8117.312426731964</v>
-      </c>
-      <c r="I4" t="n">
-        <v>8117.312426731984</v>
-      </c>
-      <c r="J4" t="n">
-        <v>8117.312426731974</v>
-      </c>
-      <c r="K4" t="n">
-        <v>8117.31242673198</v>
-      </c>
       <c r="L4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426731935</v>
       </c>
       <c r="M4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="N4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426731975</v>
       </c>
       <c r="O4" t="n">
-        <v>8117.31242673198</v>
+        <v>8117.312426731976</v>
       </c>
       <c r="P4" t="n">
         <v>8117.312426731974</v>
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984475</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-767278.3173726299</v>
+        <v>-767278.3173726292</v>
       </c>
       <c r="C6" t="n">
-        <v>347473.46620329</v>
+        <v>347473.4662032899</v>
       </c>
       <c r="D6" t="n">
-        <v>347473.4662032893</v>
+        <v>347473.4662032896</v>
       </c>
       <c r="E6" t="n">
-        <v>-51722.66409217993</v>
+        <v>-51757.40201761623</v>
       </c>
       <c r="F6" t="n">
-        <v>455762.7775323652</v>
+        <v>455728.03960693</v>
       </c>
       <c r="G6" t="n">
-        <v>455762.7775323652</v>
+        <v>455728.03960693</v>
       </c>
       <c r="H6" t="n">
-        <v>455762.7775323655</v>
+        <v>455728.0396069299</v>
       </c>
       <c r="I6" t="n">
-        <v>455762.7775323653</v>
+        <v>455728.0396069295</v>
       </c>
       <c r="J6" t="n">
-        <v>288157.599722383</v>
+        <v>288122.8617969474</v>
       </c>
       <c r="K6" t="n">
-        <v>455762.7775323655</v>
+        <v>455728.0396069299</v>
       </c>
       <c r="L6" t="n">
-        <v>455762.7775323655</v>
+        <v>455728.0396069299</v>
       </c>
       <c r="M6" t="n">
-        <v>323155.4838034386</v>
+        <v>323120.7458780028</v>
       </c>
       <c r="N6" t="n">
-        <v>455762.7775323653</v>
+        <v>455728.0396069299</v>
       </c>
       <c r="O6" t="n">
-        <v>455762.7775323655</v>
+        <v>455728.03960693</v>
       </c>
       <c r="P6" t="n">
-        <v>455762.7775323653</v>
+        <v>455728.0396069298</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175396</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26790,13 +26790,13 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000392</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26805,10 +26805,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26817,7 +26817,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26957,22 +26957,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.910608224134</v>
+        <v>433.9106082241349</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.123455999609</v>
+        <v>532.1234559996101</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.123455999609</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.123455999609</v>
+        <v>532.1234559996101</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>309.7844173726986</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27427,10 +27427,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>189.836298966477</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27543,16 +27543,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>20.08655370166485</v>
       </c>
       <c r="H4" t="n">
-        <v>124.6520010545427</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27585,7 +27585,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
@@ -27594,13 +27594,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>26.23015829397781</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>326.7524312831144</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,22 +27667,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27774,22 +27774,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>36.57186147007698</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>110.1124749751919</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>97.86455189378506</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247044</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987943</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>173.0313165627886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
@@ -28029,7 +28029,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
@@ -28065,7 +28065,7 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>270.629857099703</v>
+        <v>140.3986548624478</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28074,10 +28074,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28336,10 +28336,10 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G14" t="n">
-        <v>7.389644451905042e-13</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28989,7 +28989,7 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,34 +31133,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31358,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,34 +31370,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31455,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31467,16 +31467,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181061</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.4562495533618</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491901</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857145</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767382</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342227</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166597</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147053</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235313</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.567854187451</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436497</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
-        <v>189.8178475575842</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.428935217844</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
-        <v>509.065366204059</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762074</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997904</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000176</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31674,46 +31674,46 @@
         <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231073</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335773</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0856174753788</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227909</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169138</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.0437987097485</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.3541376752348</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069564</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024989</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>266.3926848685833</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437242</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>353.3934907042778</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,46 +31911,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>326.7634969305202</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473071</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437242</v>
+        <v>687.0167715190033</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,46 +32148,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>592.1874941409601</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>512.9101366533177</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,13 +32540,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>126.8376266666667</v>
@@ -32555,34 +32555,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>164.2853229338208</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>687.0167715190033</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>249.1672590991327</v>
       </c>
       <c r="K24" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>233.9389431948335</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>610.0546826043645</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236497</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33263,37 +33263,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>229.6463482471735</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>379.4203056753698</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33737,37 +33737,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>510.8679233250717</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33962,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33974,37 +33974,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>303.7670002884146</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34211,16 +34211,16 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>423.9151577118742</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34442,19 +34442,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>391.605194951448</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>474.0150488837098</v>
       </c>
       <c r="Q3" t="n">
-        <v>255.4201198419603</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,31 +35012,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K6" t="n">
-        <v>355.3309544215487</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667037</v>
+        <v>303.0719207327591</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225038</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.806230106751</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376318</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949729</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637951</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402558</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939913</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313263</v>
+        <v>78.62292123526699</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313188</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378504</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820407</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928741</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961232</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235324</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870598</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818073</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805409</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678995</v>
+        <v>128.5512458942243</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992797</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>219.4190832899476</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>188.9220579561612</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674329</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992797</v>
+        <v>544.4205270745589</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191298</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>453.6331143610859</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>370.3138922088733</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683806</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -36203,25 +36203,25 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>25.73094315394658</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>544.4205270745589</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010465</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>122.329632432466</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>91.80490927281522</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>471.5003028244903</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,28 +36911,28 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>91.80490927281453</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>237.2862717533515</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,25 +37385,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>379.5262112417385</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,25 +37625,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>163.785226202393</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37792,13 +37792,13 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37859,16 +37859,16 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>285.360777932</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
@@ -37956,7 +37956,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998967</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38090,19 +38090,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>253.0508151715738</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
